--- a/webapp/lib/RosterSample.xlsx
+++ b/webapp/lib/RosterSample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RENU\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F7F050-0F38-464A-819F-758A4CF9ED05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5359D153-7C4F-474B-9522-B8945D5862A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{4DE45B57-7604-499B-AAE6-80B1B870C789}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4DE45B57-7604-499B-AAE6-80B1B870C789}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,30 +33,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="82">
   <si>
     <t>Itinerary Standard</t>
   </si>
@@ -73,7 +51,235 @@
     <t>Day Type</t>
   </si>
   <si>
+    <t>RMAITRE</t>
+  </si>
+  <si>
+    <t>RBAR_CH</t>
+  </si>
+  <si>
+    <t>RCDR</t>
+  </si>
+  <si>
     <t>Scheduling Status</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>W133</t>
+  </si>
+  <si>
+    <t>W140</t>
+  </si>
+  <si>
+    <t>RBARW</t>
+  </si>
+  <si>
+    <t>W041</t>
+  </si>
+  <si>
+    <t>W108</t>
+  </si>
+  <si>
+    <t>W130</t>
+  </si>
+  <si>
+    <t>W137</t>
+  </si>
+  <si>
+    <t>RCDP</t>
+  </si>
+  <si>
+    <t>W021</t>
+  </si>
+  <si>
+    <t>W017</t>
+  </si>
+  <si>
+    <t>W085</t>
+  </si>
+  <si>
+    <t>W078</t>
+  </si>
+  <si>
+    <t>W079</t>
+  </si>
+  <si>
+    <t>W086</t>
+  </si>
+  <si>
+    <t>W098</t>
+  </si>
+  <si>
+    <t>W059</t>
+  </si>
+  <si>
+    <t>W053</t>
+  </si>
+  <si>
+    <t>W073</t>
+  </si>
+  <si>
+    <t>W072</t>
+  </si>
+  <si>
+    <t>W031</t>
+  </si>
+  <si>
+    <t>W057</t>
+  </si>
+  <si>
+    <t>W121</t>
+  </si>
+  <si>
+    <t>W127</t>
+  </si>
+  <si>
+    <t>W125</t>
+  </si>
+  <si>
+    <t>W146</t>
+  </si>
+  <si>
+    <t>W147</t>
+  </si>
+  <si>
+    <t>W126</t>
+  </si>
+  <si>
+    <t>W044</t>
+  </si>
+  <si>
+    <t>W051</t>
+  </si>
+  <si>
+    <t>RCOMM</t>
+  </si>
+  <si>
+    <t>W028</t>
+  </si>
+  <si>
+    <t>W004</t>
+  </si>
+  <si>
+    <t>W088</t>
+  </si>
+  <si>
+    <t>REXEC_CHEF</t>
+  </si>
+  <si>
+    <t>W047</t>
+  </si>
+  <si>
+    <t>W087</t>
+  </si>
+  <si>
+    <t>RGS</t>
+  </si>
+  <si>
+    <t>W143</t>
+  </si>
+  <si>
+    <t>W142</t>
+  </si>
+  <si>
+    <t>W138</t>
+  </si>
+  <si>
+    <t>W129</t>
+  </si>
+  <si>
+    <t>RGSM</t>
+  </si>
+  <si>
+    <t>W067</t>
+  </si>
+  <si>
+    <t>W100</t>
+  </si>
+  <si>
+    <t>RHM</t>
+  </si>
+  <si>
+    <t>W052</t>
+  </si>
+  <si>
+    <t>W050</t>
+  </si>
+  <si>
+    <t>RHSK</t>
+  </si>
+  <si>
+    <t>W060</t>
+  </si>
+  <si>
+    <t>W033</t>
+  </si>
+  <si>
+    <t>W070</t>
+  </si>
+  <si>
+    <t>W069</t>
+  </si>
+  <si>
+    <t>RPD</t>
+  </si>
+  <si>
+    <t>W066</t>
+  </si>
+  <si>
+    <t>W117</t>
+  </si>
+  <si>
+    <t>RSS_CHEF</t>
+  </si>
+  <si>
+    <t>RSTST</t>
+  </si>
+  <si>
+    <t>W037</t>
+  </si>
+  <si>
+    <t>W036</t>
+  </si>
+  <si>
+    <t>W016</t>
+  </si>
+  <si>
+    <t>W011</t>
+  </si>
+  <si>
+    <t>W026</t>
+  </si>
+  <si>
+    <t>W068</t>
+  </si>
+  <si>
+    <t>W013</t>
+  </si>
+  <si>
+    <t>W014</t>
+  </si>
+  <si>
+    <t>W015</t>
+  </si>
+  <si>
+    <t>RUT</t>
+  </si>
+  <si>
+    <t>W120</t>
+  </si>
+  <si>
+    <t>W094</t>
+  </si>
+  <si>
+    <t>W022</t>
+  </si>
+  <si>
+    <t>W046</t>
+  </si>
+  <si>
+    <t>TEST-new</t>
   </si>
 </sst>
 </file>
@@ -461,18 +667,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A7684AF-572B-4A26-BA1C-1B51E3FF2A0D}">
-  <dimension ref="A1:H316"/>
+  <dimension ref="A1:F330"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,13 +695,6587 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="316" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H316" t="e" cm="1">
-        <f t="array" ref="H316">A2:F</f>
-        <v>#NAME?</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36">
+        <v>7</v>
+      </c>
+      <c r="C36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41">
+        <v>5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42">
+        <v>6</v>
+      </c>
+      <c r="C42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43">
+        <v>7</v>
+      </c>
+      <c r="C43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+      <c r="E44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>81</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
+      <c r="E45" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46">
+        <v>4</v>
+      </c>
+      <c r="E46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>81</v>
+      </c>
+      <c r="B47">
+        <v>4</v>
+      </c>
+      <c r="C47" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>81</v>
+      </c>
+      <c r="B48">
+        <v>5</v>
+      </c>
+      <c r="C48" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48">
+        <v>4</v>
+      </c>
+      <c r="E48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>81</v>
+      </c>
+      <c r="B49">
+        <v>6</v>
+      </c>
+      <c r="C49" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49">
+        <v>4</v>
+      </c>
+      <c r="E49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>81</v>
+      </c>
+      <c r="B50">
+        <v>7</v>
+      </c>
+      <c r="C50" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50">
+        <v>4</v>
+      </c>
+      <c r="E50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>81</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51">
+        <v>5</v>
+      </c>
+      <c r="E51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>81</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52">
+        <v>5</v>
+      </c>
+      <c r="E52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>81</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53">
+        <v>5</v>
+      </c>
+      <c r="E53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>81</v>
+      </c>
+      <c r="B54">
+        <v>4</v>
+      </c>
+      <c r="C54" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54">
+        <v>5</v>
+      </c>
+      <c r="E54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>81</v>
+      </c>
+      <c r="B55">
+        <v>5</v>
+      </c>
+      <c r="C55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="E55" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>81</v>
+      </c>
+      <c r="B56">
+        <v>6</v>
+      </c>
+      <c r="C56" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56">
+        <v>5</v>
+      </c>
+      <c r="E56" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>81</v>
+      </c>
+      <c r="B57">
+        <v>7</v>
+      </c>
+      <c r="C57" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57">
+        <v>5</v>
+      </c>
+      <c r="E57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>81</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58">
+        <v>6</v>
+      </c>
+      <c r="E58" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>81</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59">
+        <v>6</v>
+      </c>
+      <c r="E59" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>81</v>
+      </c>
+      <c r="B60">
+        <v>3</v>
+      </c>
+      <c r="C60" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60">
+        <v>6</v>
+      </c>
+      <c r="E60" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>81</v>
+      </c>
+      <c r="B61">
+        <v>4</v>
+      </c>
+      <c r="C61" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61">
+        <v>6</v>
+      </c>
+      <c r="E61" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>81</v>
+      </c>
+      <c r="B62">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62">
+        <v>6</v>
+      </c>
+      <c r="E62" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>81</v>
+      </c>
+      <c r="B63">
+        <v>6</v>
+      </c>
+      <c r="C63" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63">
+        <v>6</v>
+      </c>
+      <c r="E63" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>81</v>
+      </c>
+      <c r="B64">
+        <v>7</v>
+      </c>
+      <c r="C64" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64">
+        <v>6</v>
+      </c>
+      <c r="E64" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>81</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65">
+        <v>7</v>
+      </c>
+      <c r="E65" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>81</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66">
+        <v>7</v>
+      </c>
+      <c r="E66" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>81</v>
+      </c>
+      <c r="B67">
+        <v>3</v>
+      </c>
+      <c r="C67" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67">
+        <v>7</v>
+      </c>
+      <c r="E67" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>81</v>
+      </c>
+      <c r="B68">
+        <v>4</v>
+      </c>
+      <c r="C68" t="s">
+        <v>17</v>
+      </c>
+      <c r="D68">
+        <v>7</v>
+      </c>
+      <c r="E68" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>81</v>
+      </c>
+      <c r="B69">
+        <v>5</v>
+      </c>
+      <c r="C69" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69">
+        <v>7</v>
+      </c>
+      <c r="E69" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>81</v>
+      </c>
+      <c r="B70">
+        <v>6</v>
+      </c>
+      <c r="C70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70">
+        <v>7</v>
+      </c>
+      <c r="E70" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>81</v>
+      </c>
+      <c r="B71">
+        <v>7</v>
+      </c>
+      <c r="C71" t="s">
+        <v>17</v>
+      </c>
+      <c r="D71">
+        <v>7</v>
+      </c>
+      <c r="E71" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>81</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72" t="s">
+        <v>9</v>
+      </c>
+      <c r="F72" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>81</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73" t="s">
+        <v>9</v>
+      </c>
+      <c r="F73" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>81</v>
+      </c>
+      <c r="B74">
+        <v>3</v>
+      </c>
+      <c r="C74" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>81</v>
+      </c>
+      <c r="B75">
+        <v>4</v>
+      </c>
+      <c r="C75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75" t="s">
+        <v>9</v>
+      </c>
+      <c r="F75" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76">
+        <v>5</v>
+      </c>
+      <c r="C76" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76" t="s">
+        <v>9</v>
+      </c>
+      <c r="F76" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>81</v>
+      </c>
+      <c r="B77">
+        <v>6</v>
+      </c>
+      <c r="C77" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78">
+        <v>7</v>
+      </c>
+      <c r="C78" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78" t="s">
+        <v>9</v>
+      </c>
+      <c r="F78" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>81</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79">
+        <v>10</v>
+      </c>
+      <c r="E79" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80">
+        <v>2</v>
+      </c>
+      <c r="C80" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80">
+        <v>10</v>
+      </c>
+      <c r="E80" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81">
+        <v>3</v>
+      </c>
+      <c r="C81" t="s">
+        <v>7</v>
+      </c>
+      <c r="D81">
+        <v>10</v>
+      </c>
+      <c r="E81" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>4</v>
+      </c>
+      <c r="C82" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82">
+        <v>10</v>
+      </c>
+      <c r="E82" t="s">
+        <v>9</v>
+      </c>
+      <c r="F82" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>5</v>
+      </c>
+      <c r="C83" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83">
+        <v>10</v>
+      </c>
+      <c r="E83" t="s">
+        <v>9</v>
+      </c>
+      <c r="F83" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>81</v>
+      </c>
+      <c r="B84">
+        <v>6</v>
+      </c>
+      <c r="C84" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84">
+        <v>10</v>
+      </c>
+      <c r="E84" t="s">
+        <v>9</v>
+      </c>
+      <c r="F84" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>81</v>
+      </c>
+      <c r="B85">
+        <v>7</v>
+      </c>
+      <c r="C85" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85">
+        <v>10</v>
+      </c>
+      <c r="E85" t="s">
+        <v>9</v>
+      </c>
+      <c r="F85" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>81</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86">
+        <v>11</v>
+      </c>
+      <c r="E86" t="s">
+        <v>9</v>
+      </c>
+      <c r="F86" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>81</v>
+      </c>
+      <c r="B87">
+        <v>2</v>
+      </c>
+      <c r="C87" t="s">
+        <v>7</v>
+      </c>
+      <c r="D87">
+        <v>11</v>
+      </c>
+      <c r="E87" t="s">
+        <v>9</v>
+      </c>
+      <c r="F87" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>81</v>
+      </c>
+      <c r="B88">
+        <v>3</v>
+      </c>
+      <c r="C88" t="s">
+        <v>7</v>
+      </c>
+      <c r="D88">
+        <v>11</v>
+      </c>
+      <c r="E88" t="s">
+        <v>9</v>
+      </c>
+      <c r="F88" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>81</v>
+      </c>
+      <c r="B89">
+        <v>4</v>
+      </c>
+      <c r="C89" t="s">
+        <v>7</v>
+      </c>
+      <c r="D89">
+        <v>11</v>
+      </c>
+      <c r="E89" t="s">
+        <v>9</v>
+      </c>
+      <c r="F89" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>81</v>
+      </c>
+      <c r="B90">
+        <v>5</v>
+      </c>
+      <c r="C90" t="s">
+        <v>7</v>
+      </c>
+      <c r="D90">
+        <v>11</v>
+      </c>
+      <c r="E90" t="s">
+        <v>9</v>
+      </c>
+      <c r="F90" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>81</v>
+      </c>
+      <c r="B91">
+        <v>6</v>
+      </c>
+      <c r="C91" t="s">
+        <v>7</v>
+      </c>
+      <c r="D91">
+        <v>11</v>
+      </c>
+      <c r="E91" t="s">
+        <v>9</v>
+      </c>
+      <c r="F91" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>81</v>
+      </c>
+      <c r="B92">
+        <v>7</v>
+      </c>
+      <c r="C92" t="s">
+        <v>7</v>
+      </c>
+      <c r="D92">
+        <v>11</v>
+      </c>
+      <c r="E92" t="s">
+        <v>9</v>
+      </c>
+      <c r="F92" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>81</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>7</v>
+      </c>
+      <c r="D93">
+        <v>12</v>
+      </c>
+      <c r="E93" t="s">
+        <v>9</v>
+      </c>
+      <c r="F93" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>81</v>
+      </c>
+      <c r="B94">
+        <v>2</v>
+      </c>
+      <c r="C94" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94">
+        <v>12</v>
+      </c>
+      <c r="E94" t="s">
+        <v>9</v>
+      </c>
+      <c r="F94" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>81</v>
+      </c>
+      <c r="B95">
+        <v>3</v>
+      </c>
+      <c r="C95" t="s">
+        <v>7</v>
+      </c>
+      <c r="D95">
+        <v>12</v>
+      </c>
+      <c r="E95" t="s">
+        <v>9</v>
+      </c>
+      <c r="F95" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>81</v>
+      </c>
+      <c r="B96">
+        <v>4</v>
+      </c>
+      <c r="C96" t="s">
+        <v>7</v>
+      </c>
+      <c r="D96">
+        <v>12</v>
+      </c>
+      <c r="E96" t="s">
+        <v>9</v>
+      </c>
+      <c r="F96" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>81</v>
+      </c>
+      <c r="B97">
+        <v>5</v>
+      </c>
+      <c r="C97" t="s">
+        <v>7</v>
+      </c>
+      <c r="D97">
+        <v>12</v>
+      </c>
+      <c r="E97" t="s">
+        <v>9</v>
+      </c>
+      <c r="F97" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>81</v>
+      </c>
+      <c r="B98">
+        <v>6</v>
+      </c>
+      <c r="C98" t="s">
+        <v>7</v>
+      </c>
+      <c r="D98">
+        <v>12</v>
+      </c>
+      <c r="E98" t="s">
+        <v>9</v>
+      </c>
+      <c r="F98" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>81</v>
+      </c>
+      <c r="B99">
+        <v>7</v>
+      </c>
+      <c r="C99" t="s">
+        <v>7</v>
+      </c>
+      <c r="D99">
+        <v>12</v>
+      </c>
+      <c r="E99" t="s">
+        <v>9</v>
+      </c>
+      <c r="F99" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>81</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>7</v>
+      </c>
+      <c r="D100">
+        <v>13</v>
+      </c>
+      <c r="E100" t="s">
+        <v>9</v>
+      </c>
+      <c r="F100" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>81</v>
+      </c>
+      <c r="B101">
+        <v>2</v>
+      </c>
+      <c r="C101" t="s">
+        <v>7</v>
+      </c>
+      <c r="D101">
+        <v>13</v>
+      </c>
+      <c r="E101" t="s">
+        <v>9</v>
+      </c>
+      <c r="F101" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>81</v>
+      </c>
+      <c r="B102">
+        <v>3</v>
+      </c>
+      <c r="C102" t="s">
+        <v>7</v>
+      </c>
+      <c r="D102">
+        <v>13</v>
+      </c>
+      <c r="E102" t="s">
+        <v>9</v>
+      </c>
+      <c r="F102" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>81</v>
+      </c>
+      <c r="B103">
+        <v>4</v>
+      </c>
+      <c r="C103" t="s">
+        <v>7</v>
+      </c>
+      <c r="D103">
+        <v>13</v>
+      </c>
+      <c r="E103" t="s">
+        <v>9</v>
+      </c>
+      <c r="F103" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>81</v>
+      </c>
+      <c r="B104">
+        <v>5</v>
+      </c>
+      <c r="C104" t="s">
+        <v>7</v>
+      </c>
+      <c r="D104">
+        <v>13</v>
+      </c>
+      <c r="E104" t="s">
+        <v>9</v>
+      </c>
+      <c r="F104" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>81</v>
+      </c>
+      <c r="B105">
+        <v>6</v>
+      </c>
+      <c r="C105" t="s">
+        <v>7</v>
+      </c>
+      <c r="D105">
+        <v>13</v>
+      </c>
+      <c r="E105" t="s">
+        <v>9</v>
+      </c>
+      <c r="F105" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>81</v>
+      </c>
+      <c r="B106">
+        <v>7</v>
+      </c>
+      <c r="C106" t="s">
+        <v>7</v>
+      </c>
+      <c r="D106">
+        <v>13</v>
+      </c>
+      <c r="E106" t="s">
+        <v>9</v>
+      </c>
+      <c r="F106" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>81</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107" t="s">
+        <v>7</v>
+      </c>
+      <c r="D107">
+        <v>14</v>
+      </c>
+      <c r="E107" t="s">
+        <v>9</v>
+      </c>
+      <c r="F107" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>81</v>
+      </c>
+      <c r="B108">
+        <v>2</v>
+      </c>
+      <c r="C108" t="s">
+        <v>7</v>
+      </c>
+      <c r="D108">
+        <v>14</v>
+      </c>
+      <c r="E108" t="s">
+        <v>9</v>
+      </c>
+      <c r="F108" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>81</v>
+      </c>
+      <c r="B109">
+        <v>3</v>
+      </c>
+      <c r="C109" t="s">
+        <v>7</v>
+      </c>
+      <c r="D109">
+        <v>14</v>
+      </c>
+      <c r="E109" t="s">
+        <v>9</v>
+      </c>
+      <c r="F109" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>81</v>
+      </c>
+      <c r="B110">
+        <v>4</v>
+      </c>
+      <c r="C110" t="s">
+        <v>7</v>
+      </c>
+      <c r="D110">
+        <v>14</v>
+      </c>
+      <c r="E110" t="s">
+        <v>9</v>
+      </c>
+      <c r="F110" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>81</v>
+      </c>
+      <c r="B111">
+        <v>5</v>
+      </c>
+      <c r="C111" t="s">
+        <v>7</v>
+      </c>
+      <c r="D111">
+        <v>14</v>
+      </c>
+      <c r="E111" t="s">
+        <v>9</v>
+      </c>
+      <c r="F111" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>81</v>
+      </c>
+      <c r="B112">
+        <v>6</v>
+      </c>
+      <c r="C112" t="s">
+        <v>7</v>
+      </c>
+      <c r="D112">
+        <v>14</v>
+      </c>
+      <c r="E112" t="s">
+        <v>9</v>
+      </c>
+      <c r="F112" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>81</v>
+      </c>
+      <c r="B113">
+        <v>7</v>
+      </c>
+      <c r="C113" t="s">
+        <v>7</v>
+      </c>
+      <c r="D113">
+        <v>14</v>
+      </c>
+      <c r="E113" t="s">
+        <v>9</v>
+      </c>
+      <c r="F113" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>81</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114" t="s">
+        <v>7</v>
+      </c>
+      <c r="D114">
+        <v>2</v>
+      </c>
+      <c r="E114" t="s">
+        <v>9</v>
+      </c>
+      <c r="F114" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>81</v>
+      </c>
+      <c r="B115">
+        <v>2</v>
+      </c>
+      <c r="C115" t="s">
+        <v>7</v>
+      </c>
+      <c r="D115">
+        <v>2</v>
+      </c>
+      <c r="E115" t="s">
+        <v>9</v>
+      </c>
+      <c r="F115" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>81</v>
+      </c>
+      <c r="B116">
+        <v>3</v>
+      </c>
+      <c r="C116" t="s">
+        <v>7</v>
+      </c>
+      <c r="D116">
+        <v>2</v>
+      </c>
+      <c r="E116" t="s">
+        <v>9</v>
+      </c>
+      <c r="F116" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>81</v>
+      </c>
+      <c r="B117">
+        <v>4</v>
+      </c>
+      <c r="C117" t="s">
+        <v>7</v>
+      </c>
+      <c r="D117">
+        <v>2</v>
+      </c>
+      <c r="E117" t="s">
+        <v>9</v>
+      </c>
+      <c r="F117" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>81</v>
+      </c>
+      <c r="B118">
+        <v>5</v>
+      </c>
+      <c r="C118" t="s">
+        <v>7</v>
+      </c>
+      <c r="D118">
+        <v>2</v>
+      </c>
+      <c r="E118" t="s">
+        <v>9</v>
+      </c>
+      <c r="F118" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>81</v>
+      </c>
+      <c r="B119">
+        <v>6</v>
+      </c>
+      <c r="C119" t="s">
+        <v>7</v>
+      </c>
+      <c r="D119">
+        <v>2</v>
+      </c>
+      <c r="E119" t="s">
+        <v>9</v>
+      </c>
+      <c r="F119" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>81</v>
+      </c>
+      <c r="B120">
+        <v>7</v>
+      </c>
+      <c r="C120" t="s">
+        <v>7</v>
+      </c>
+      <c r="D120">
+        <v>2</v>
+      </c>
+      <c r="E120" t="s">
+        <v>9</v>
+      </c>
+      <c r="F120" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>81</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121" t="s">
+        <v>7</v>
+      </c>
+      <c r="D121">
+        <v>3</v>
+      </c>
+      <c r="E121" t="s">
+        <v>9</v>
+      </c>
+      <c r="F121" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>81</v>
+      </c>
+      <c r="B122">
+        <v>2</v>
+      </c>
+      <c r="C122" t="s">
+        <v>7</v>
+      </c>
+      <c r="D122">
+        <v>3</v>
+      </c>
+      <c r="E122" t="s">
+        <v>9</v>
+      </c>
+      <c r="F122" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>81</v>
+      </c>
+      <c r="B123">
+        <v>3</v>
+      </c>
+      <c r="C123" t="s">
+        <v>7</v>
+      </c>
+      <c r="D123">
+        <v>3</v>
+      </c>
+      <c r="E123" t="s">
+        <v>9</v>
+      </c>
+      <c r="F123" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>81</v>
+      </c>
+      <c r="B124">
+        <v>4</v>
+      </c>
+      <c r="C124" t="s">
+        <v>7</v>
+      </c>
+      <c r="D124">
+        <v>3</v>
+      </c>
+      <c r="E124" t="s">
+        <v>9</v>
+      </c>
+      <c r="F124" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>81</v>
+      </c>
+      <c r="B125">
+        <v>5</v>
+      </c>
+      <c r="C125" t="s">
+        <v>7</v>
+      </c>
+      <c r="D125">
+        <v>3</v>
+      </c>
+      <c r="E125" t="s">
+        <v>9</v>
+      </c>
+      <c r="F125" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>81</v>
+      </c>
+      <c r="B126">
+        <v>6</v>
+      </c>
+      <c r="C126" t="s">
+        <v>7</v>
+      </c>
+      <c r="D126">
+        <v>3</v>
+      </c>
+      <c r="E126" t="s">
+        <v>9</v>
+      </c>
+      <c r="F126" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>81</v>
+      </c>
+      <c r="B127">
+        <v>7</v>
+      </c>
+      <c r="C127" t="s">
+        <v>7</v>
+      </c>
+      <c r="D127">
+        <v>3</v>
+      </c>
+      <c r="E127" t="s">
+        <v>9</v>
+      </c>
+      <c r="F127" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>81</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="C128" t="s">
+        <v>7</v>
+      </c>
+      <c r="D128">
+        <v>4</v>
+      </c>
+      <c r="E128" t="s">
+        <v>9</v>
+      </c>
+      <c r="F128" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>81</v>
+      </c>
+      <c r="B129">
+        <v>2</v>
+      </c>
+      <c r="C129" t="s">
+        <v>7</v>
+      </c>
+      <c r="D129">
+        <v>4</v>
+      </c>
+      <c r="E129" t="s">
+        <v>9</v>
+      </c>
+      <c r="F129" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>81</v>
+      </c>
+      <c r="B130">
+        <v>3</v>
+      </c>
+      <c r="C130" t="s">
+        <v>7</v>
+      </c>
+      <c r="D130">
+        <v>4</v>
+      </c>
+      <c r="E130" t="s">
+        <v>9</v>
+      </c>
+      <c r="F130" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>81</v>
+      </c>
+      <c r="B131">
+        <v>4</v>
+      </c>
+      <c r="C131" t="s">
+        <v>7</v>
+      </c>
+      <c r="D131">
+        <v>4</v>
+      </c>
+      <c r="E131" t="s">
+        <v>9</v>
+      </c>
+      <c r="F131" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>81</v>
+      </c>
+      <c r="B132">
+        <v>5</v>
+      </c>
+      <c r="C132" t="s">
+        <v>7</v>
+      </c>
+      <c r="D132">
+        <v>4</v>
+      </c>
+      <c r="E132" t="s">
+        <v>9</v>
+      </c>
+      <c r="F132" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>81</v>
+      </c>
+      <c r="B133">
+        <v>6</v>
+      </c>
+      <c r="C133" t="s">
+        <v>7</v>
+      </c>
+      <c r="D133">
+        <v>4</v>
+      </c>
+      <c r="E133" t="s">
+        <v>9</v>
+      </c>
+      <c r="F133" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>81</v>
+      </c>
+      <c r="B134">
+        <v>7</v>
+      </c>
+      <c r="C134" t="s">
+        <v>7</v>
+      </c>
+      <c r="D134">
+        <v>4</v>
+      </c>
+      <c r="E134" t="s">
+        <v>9</v>
+      </c>
+      <c r="F134" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>81</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
+      <c r="C135" t="s">
+        <v>7</v>
+      </c>
+      <c r="D135">
+        <v>5</v>
+      </c>
+      <c r="E135" t="s">
+        <v>9</v>
+      </c>
+      <c r="F135" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>81</v>
+      </c>
+      <c r="B136">
+        <v>2</v>
+      </c>
+      <c r="C136" t="s">
+        <v>7</v>
+      </c>
+      <c r="D136">
+        <v>5</v>
+      </c>
+      <c r="E136" t="s">
+        <v>9</v>
+      </c>
+      <c r="F136" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>81</v>
+      </c>
+      <c r="B137">
+        <v>3</v>
+      </c>
+      <c r="C137" t="s">
+        <v>7</v>
+      </c>
+      <c r="D137">
+        <v>5</v>
+      </c>
+      <c r="E137" t="s">
+        <v>9</v>
+      </c>
+      <c r="F137" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>81</v>
+      </c>
+      <c r="B138">
+        <v>4</v>
+      </c>
+      <c r="C138" t="s">
+        <v>7</v>
+      </c>
+      <c r="D138">
+        <v>5</v>
+      </c>
+      <c r="E138" t="s">
+        <v>9</v>
+      </c>
+      <c r="F138" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>81</v>
+      </c>
+      <c r="B139">
+        <v>5</v>
+      </c>
+      <c r="C139" t="s">
+        <v>7</v>
+      </c>
+      <c r="D139">
+        <v>5</v>
+      </c>
+      <c r="E139" t="s">
+        <v>9</v>
+      </c>
+      <c r="F139" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>81</v>
+      </c>
+      <c r="B140">
+        <v>6</v>
+      </c>
+      <c r="C140" t="s">
+        <v>7</v>
+      </c>
+      <c r="D140">
+        <v>5</v>
+      </c>
+      <c r="E140" t="s">
+        <v>9</v>
+      </c>
+      <c r="F140" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>81</v>
+      </c>
+      <c r="B141">
+        <v>7</v>
+      </c>
+      <c r="C141" t="s">
+        <v>7</v>
+      </c>
+      <c r="D141">
+        <v>5</v>
+      </c>
+      <c r="E141" t="s">
+        <v>9</v>
+      </c>
+      <c r="F141" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>81</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+      <c r="C142" t="s">
+        <v>7</v>
+      </c>
+      <c r="D142">
+        <v>6</v>
+      </c>
+      <c r="E142" t="s">
+        <v>9</v>
+      </c>
+      <c r="F142" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>81</v>
+      </c>
+      <c r="B143">
+        <v>2</v>
+      </c>
+      <c r="C143" t="s">
+        <v>7</v>
+      </c>
+      <c r="D143">
+        <v>6</v>
+      </c>
+      <c r="E143" t="s">
+        <v>9</v>
+      </c>
+      <c r="F143" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>81</v>
+      </c>
+      <c r="B144">
+        <v>3</v>
+      </c>
+      <c r="C144" t="s">
+        <v>7</v>
+      </c>
+      <c r="D144">
+        <v>6</v>
+      </c>
+      <c r="E144" t="s">
+        <v>9</v>
+      </c>
+      <c r="F144" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>81</v>
+      </c>
+      <c r="B145">
+        <v>4</v>
+      </c>
+      <c r="C145" t="s">
+        <v>7</v>
+      </c>
+      <c r="D145">
+        <v>6</v>
+      </c>
+      <c r="E145" t="s">
+        <v>9</v>
+      </c>
+      <c r="F145" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>81</v>
+      </c>
+      <c r="B146">
+        <v>5</v>
+      </c>
+      <c r="C146" t="s">
+        <v>7</v>
+      </c>
+      <c r="D146">
+        <v>6</v>
+      </c>
+      <c r="E146" t="s">
+        <v>9</v>
+      </c>
+      <c r="F146" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>81</v>
+      </c>
+      <c r="B147">
+        <v>6</v>
+      </c>
+      <c r="C147" t="s">
+        <v>7</v>
+      </c>
+      <c r="D147">
+        <v>6</v>
+      </c>
+      <c r="E147" t="s">
+        <v>9</v>
+      </c>
+      <c r="F147" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>81</v>
+      </c>
+      <c r="B148">
+        <v>7</v>
+      </c>
+      <c r="C148" t="s">
+        <v>7</v>
+      </c>
+      <c r="D148">
+        <v>6</v>
+      </c>
+      <c r="E148" t="s">
+        <v>9</v>
+      </c>
+      <c r="F148" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>81</v>
+      </c>
+      <c r="B149">
+        <v>1</v>
+      </c>
+      <c r="C149" t="s">
+        <v>7</v>
+      </c>
+      <c r="D149">
+        <v>7</v>
+      </c>
+      <c r="E149" t="s">
+        <v>9</v>
+      </c>
+      <c r="F149" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>81</v>
+      </c>
+      <c r="B150">
+        <v>2</v>
+      </c>
+      <c r="C150" t="s">
+        <v>7</v>
+      </c>
+      <c r="D150">
+        <v>7</v>
+      </c>
+      <c r="E150" t="s">
+        <v>9</v>
+      </c>
+      <c r="F150" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>81</v>
+      </c>
+      <c r="B151">
+        <v>3</v>
+      </c>
+      <c r="C151" t="s">
+        <v>7</v>
+      </c>
+      <c r="D151">
+        <v>7</v>
+      </c>
+      <c r="E151" t="s">
+        <v>9</v>
+      </c>
+      <c r="F151" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>81</v>
+      </c>
+      <c r="B152">
+        <v>4</v>
+      </c>
+      <c r="C152" t="s">
+        <v>7</v>
+      </c>
+      <c r="D152">
+        <v>7</v>
+      </c>
+      <c r="E152" t="s">
+        <v>9</v>
+      </c>
+      <c r="F152" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>81</v>
+      </c>
+      <c r="B153">
+        <v>5</v>
+      </c>
+      <c r="C153" t="s">
+        <v>7</v>
+      </c>
+      <c r="D153">
+        <v>7</v>
+      </c>
+      <c r="E153" t="s">
+        <v>9</v>
+      </c>
+      <c r="F153" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>81</v>
+      </c>
+      <c r="B154">
+        <v>6</v>
+      </c>
+      <c r="C154" t="s">
+        <v>7</v>
+      </c>
+      <c r="D154">
+        <v>7</v>
+      </c>
+      <c r="E154" t="s">
+        <v>9</v>
+      </c>
+      <c r="F154" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>81</v>
+      </c>
+      <c r="B155">
+        <v>7</v>
+      </c>
+      <c r="C155" t="s">
+        <v>7</v>
+      </c>
+      <c r="D155">
+        <v>7</v>
+      </c>
+      <c r="E155" t="s">
+        <v>9</v>
+      </c>
+      <c r="F155" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>81</v>
+      </c>
+      <c r="B156">
+        <v>1</v>
+      </c>
+      <c r="C156" t="s">
+        <v>7</v>
+      </c>
+      <c r="D156">
+        <v>8</v>
+      </c>
+      <c r="E156" t="s">
+        <v>9</v>
+      </c>
+      <c r="F156" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>81</v>
+      </c>
+      <c r="B157">
+        <v>2</v>
+      </c>
+      <c r="C157" t="s">
+        <v>7</v>
+      </c>
+      <c r="D157">
+        <v>8</v>
+      </c>
+      <c r="E157" t="s">
+        <v>9</v>
+      </c>
+      <c r="F157" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>81</v>
+      </c>
+      <c r="B158">
+        <v>3</v>
+      </c>
+      <c r="C158" t="s">
+        <v>7</v>
+      </c>
+      <c r="D158">
+        <v>8</v>
+      </c>
+      <c r="E158" t="s">
+        <v>9</v>
+      </c>
+      <c r="F158" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>81</v>
+      </c>
+      <c r="B159">
+        <v>4</v>
+      </c>
+      <c r="C159" t="s">
+        <v>7</v>
+      </c>
+      <c r="D159">
+        <v>8</v>
+      </c>
+      <c r="E159" t="s">
+        <v>9</v>
+      </c>
+      <c r="F159" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>81</v>
+      </c>
+      <c r="B160">
+        <v>5</v>
+      </c>
+      <c r="C160" t="s">
+        <v>7</v>
+      </c>
+      <c r="D160">
+        <v>8</v>
+      </c>
+      <c r="E160" t="s">
+        <v>9</v>
+      </c>
+      <c r="F160" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>81</v>
+      </c>
+      <c r="B161">
+        <v>6</v>
+      </c>
+      <c r="C161" t="s">
+        <v>7</v>
+      </c>
+      <c r="D161">
+        <v>8</v>
+      </c>
+      <c r="E161" t="s">
+        <v>9</v>
+      </c>
+      <c r="F161" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>81</v>
+      </c>
+      <c r="B162">
+        <v>7</v>
+      </c>
+      <c r="C162" t="s">
+        <v>7</v>
+      </c>
+      <c r="D162">
+        <v>8</v>
+      </c>
+      <c r="E162" t="s">
+        <v>9</v>
+      </c>
+      <c r="F162" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>81</v>
+      </c>
+      <c r="B163">
+        <v>1</v>
+      </c>
+      <c r="C163" t="s">
+        <v>7</v>
+      </c>
+      <c r="D163">
+        <v>9</v>
+      </c>
+      <c r="E163" t="s">
+        <v>9</v>
+      </c>
+      <c r="F163" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>81</v>
+      </c>
+      <c r="B164">
+        <v>2</v>
+      </c>
+      <c r="C164" t="s">
+        <v>7</v>
+      </c>
+      <c r="D164">
+        <v>9</v>
+      </c>
+      <c r="E164" t="s">
+        <v>9</v>
+      </c>
+      <c r="F164" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>81</v>
+      </c>
+      <c r="B165">
+        <v>3</v>
+      </c>
+      <c r="C165" t="s">
+        <v>7</v>
+      </c>
+      <c r="D165">
+        <v>9</v>
+      </c>
+      <c r="E165" t="s">
+        <v>9</v>
+      </c>
+      <c r="F165" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>81</v>
+      </c>
+      <c r="B166">
+        <v>4</v>
+      </c>
+      <c r="C166" t="s">
+        <v>7</v>
+      </c>
+      <c r="D166">
+        <v>9</v>
+      </c>
+      <c r="E166" t="s">
+        <v>9</v>
+      </c>
+      <c r="F166" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>81</v>
+      </c>
+      <c r="B167">
+        <v>5</v>
+      </c>
+      <c r="C167" t="s">
+        <v>7</v>
+      </c>
+      <c r="D167">
+        <v>9</v>
+      </c>
+      <c r="E167" t="s">
+        <v>9</v>
+      </c>
+      <c r="F167" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>81</v>
+      </c>
+      <c r="B168">
+        <v>6</v>
+      </c>
+      <c r="C168" t="s">
+        <v>7</v>
+      </c>
+      <c r="D168">
+        <v>9</v>
+      </c>
+      <c r="E168" t="s">
+        <v>9</v>
+      </c>
+      <c r="F168" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>81</v>
+      </c>
+      <c r="B169">
+        <v>7</v>
+      </c>
+      <c r="C169" t="s">
+        <v>7</v>
+      </c>
+      <c r="D169">
+        <v>9</v>
+      </c>
+      <c r="E169" t="s">
+        <v>9</v>
+      </c>
+      <c r="F169" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>81</v>
+      </c>
+      <c r="B170">
+        <v>1</v>
+      </c>
+      <c r="C170" t="s">
+        <v>39</v>
+      </c>
+      <c r="D170">
+        <v>1</v>
+      </c>
+      <c r="E170" t="s">
+        <v>9</v>
+      </c>
+      <c r="F170" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>81</v>
+      </c>
+      <c r="B171">
+        <v>2</v>
+      </c>
+      <c r="C171" t="s">
+        <v>39</v>
+      </c>
+      <c r="D171">
+        <v>1</v>
+      </c>
+      <c r="E171" t="s">
+        <v>9</v>
+      </c>
+      <c r="F171" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>81</v>
+      </c>
+      <c r="B172">
+        <v>3</v>
+      </c>
+      <c r="C172" t="s">
+        <v>39</v>
+      </c>
+      <c r="D172">
+        <v>1</v>
+      </c>
+      <c r="E172" t="s">
+        <v>9</v>
+      </c>
+      <c r="F172" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>81</v>
+      </c>
+      <c r="B173">
+        <v>4</v>
+      </c>
+      <c r="C173" t="s">
+        <v>39</v>
+      </c>
+      <c r="D173">
+        <v>1</v>
+      </c>
+      <c r="E173" t="s">
+        <v>9</v>
+      </c>
+      <c r="F173" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>81</v>
+      </c>
+      <c r="B174">
+        <v>5</v>
+      </c>
+      <c r="C174" t="s">
+        <v>39</v>
+      </c>
+      <c r="D174">
+        <v>1</v>
+      </c>
+      <c r="E174" t="s">
+        <v>9</v>
+      </c>
+      <c r="F174" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>81</v>
+      </c>
+      <c r="B175">
+        <v>6</v>
+      </c>
+      <c r="C175" t="s">
+        <v>39</v>
+      </c>
+      <c r="D175">
+        <v>1</v>
+      </c>
+      <c r="E175" t="s">
+        <v>9</v>
+      </c>
+      <c r="F175" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>81</v>
+      </c>
+      <c r="B176">
+        <v>7</v>
+      </c>
+      <c r="C176" t="s">
+        <v>39</v>
+      </c>
+      <c r="D176">
+        <v>1</v>
+      </c>
+      <c r="E176" t="s">
+        <v>9</v>
+      </c>
+      <c r="F176" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>81</v>
+      </c>
+      <c r="B177">
+        <v>1</v>
+      </c>
+      <c r="C177" t="s">
+        <v>39</v>
+      </c>
+      <c r="D177">
+        <v>2</v>
+      </c>
+      <c r="E177" t="s">
+        <v>9</v>
+      </c>
+      <c r="F177" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>81</v>
+      </c>
+      <c r="B178">
+        <v>2</v>
+      </c>
+      <c r="C178" t="s">
+        <v>39</v>
+      </c>
+      <c r="D178">
+        <v>2</v>
+      </c>
+      <c r="E178" t="s">
+        <v>9</v>
+      </c>
+      <c r="F178" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>81</v>
+      </c>
+      <c r="B179">
+        <v>3</v>
+      </c>
+      <c r="C179" t="s">
+        <v>39</v>
+      </c>
+      <c r="D179">
+        <v>2</v>
+      </c>
+      <c r="E179" t="s">
+        <v>9</v>
+      </c>
+      <c r="F179" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>81</v>
+      </c>
+      <c r="B180">
+        <v>4</v>
+      </c>
+      <c r="C180" t="s">
+        <v>39</v>
+      </c>
+      <c r="D180">
+        <v>2</v>
+      </c>
+      <c r="E180" t="s">
+        <v>9</v>
+      </c>
+      <c r="F180" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>81</v>
+      </c>
+      <c r="B181">
+        <v>5</v>
+      </c>
+      <c r="C181" t="s">
+        <v>39</v>
+      </c>
+      <c r="D181">
+        <v>2</v>
+      </c>
+      <c r="E181" t="s">
+        <v>9</v>
+      </c>
+      <c r="F181" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>81</v>
+      </c>
+      <c r="B182">
+        <v>6</v>
+      </c>
+      <c r="C182" t="s">
+        <v>39</v>
+      </c>
+      <c r="D182">
+        <v>2</v>
+      </c>
+      <c r="E182" t="s">
+        <v>9</v>
+      </c>
+      <c r="F182" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>81</v>
+      </c>
+      <c r="B183">
+        <v>7</v>
+      </c>
+      <c r="C183" t="s">
+        <v>39</v>
+      </c>
+      <c r="D183">
+        <v>2</v>
+      </c>
+      <c r="E183" t="s">
+        <v>9</v>
+      </c>
+      <c r="F183" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>81</v>
+      </c>
+      <c r="B184">
+        <v>1</v>
+      </c>
+      <c r="C184" t="s">
+        <v>43</v>
+      </c>
+      <c r="D184">
+        <v>1</v>
+      </c>
+      <c r="E184" t="s">
+        <v>9</v>
+      </c>
+      <c r="F184" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>81</v>
+      </c>
+      <c r="B185">
+        <v>2</v>
+      </c>
+      <c r="C185" t="s">
+        <v>43</v>
+      </c>
+      <c r="D185">
+        <v>1</v>
+      </c>
+      <c r="E185" t="s">
+        <v>9</v>
+      </c>
+      <c r="F185" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>81</v>
+      </c>
+      <c r="B186">
+        <v>3</v>
+      </c>
+      <c r="C186" t="s">
+        <v>43</v>
+      </c>
+      <c r="D186">
+        <v>1</v>
+      </c>
+      <c r="E186" t="s">
+        <v>9</v>
+      </c>
+      <c r="F186" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>81</v>
+      </c>
+      <c r="B187">
+        <v>4</v>
+      </c>
+      <c r="C187" t="s">
+        <v>43</v>
+      </c>
+      <c r="D187">
+        <v>1</v>
+      </c>
+      <c r="E187" t="s">
+        <v>9</v>
+      </c>
+      <c r="F187" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>81</v>
+      </c>
+      <c r="B188">
+        <v>5</v>
+      </c>
+      <c r="C188" t="s">
+        <v>43</v>
+      </c>
+      <c r="D188">
+        <v>1</v>
+      </c>
+      <c r="E188" t="s">
+        <v>9</v>
+      </c>
+      <c r="F188" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>81</v>
+      </c>
+      <c r="B189">
+        <v>6</v>
+      </c>
+      <c r="C189" t="s">
+        <v>43</v>
+      </c>
+      <c r="D189">
+        <v>1</v>
+      </c>
+      <c r="E189" t="s">
+        <v>9</v>
+      </c>
+      <c r="F189" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>81</v>
+      </c>
+      <c r="B190">
+        <v>7</v>
+      </c>
+      <c r="C190" t="s">
+        <v>43</v>
+      </c>
+      <c r="D190">
+        <v>1</v>
+      </c>
+      <c r="E190" t="s">
+        <v>9</v>
+      </c>
+      <c r="F190" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>81</v>
+      </c>
+      <c r="B191">
+        <v>1</v>
+      </c>
+      <c r="C191" t="s">
+        <v>46</v>
+      </c>
+      <c r="D191">
+        <v>1</v>
+      </c>
+      <c r="E191" t="s">
+        <v>9</v>
+      </c>
+      <c r="F191" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>81</v>
+      </c>
+      <c r="B192">
+        <v>2</v>
+      </c>
+      <c r="C192" t="s">
+        <v>46</v>
+      </c>
+      <c r="D192">
+        <v>1</v>
+      </c>
+      <c r="E192" t="s">
+        <v>9</v>
+      </c>
+      <c r="F192" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>81</v>
+      </c>
+      <c r="B193">
+        <v>3</v>
+      </c>
+      <c r="C193" t="s">
+        <v>46</v>
+      </c>
+      <c r="D193">
+        <v>1</v>
+      </c>
+      <c r="E193" t="s">
+        <v>9</v>
+      </c>
+      <c r="F193" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>81</v>
+      </c>
+      <c r="B194">
+        <v>4</v>
+      </c>
+      <c r="C194" t="s">
+        <v>46</v>
+      </c>
+      <c r="D194">
+        <v>1</v>
+      </c>
+      <c r="E194" t="s">
+        <v>9</v>
+      </c>
+      <c r="F194" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>81</v>
+      </c>
+      <c r="B195">
+        <v>5</v>
+      </c>
+      <c r="C195" t="s">
+        <v>46</v>
+      </c>
+      <c r="D195">
+        <v>1</v>
+      </c>
+      <c r="E195" t="s">
+        <v>9</v>
+      </c>
+      <c r="F195" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>81</v>
+      </c>
+      <c r="B196">
+        <v>6</v>
+      </c>
+      <c r="C196" t="s">
+        <v>46</v>
+      </c>
+      <c r="D196">
+        <v>1</v>
+      </c>
+      <c r="E196" t="s">
+        <v>9</v>
+      </c>
+      <c r="F196" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>81</v>
+      </c>
+      <c r="B197">
+        <v>7</v>
+      </c>
+      <c r="C197" t="s">
+        <v>46</v>
+      </c>
+      <c r="D197">
+        <v>1</v>
+      </c>
+      <c r="E197" t="s">
+        <v>9</v>
+      </c>
+      <c r="F197" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>81</v>
+      </c>
+      <c r="B198">
+        <v>1</v>
+      </c>
+      <c r="C198" t="s">
+        <v>46</v>
+      </c>
+      <c r="D198">
+        <v>2</v>
+      </c>
+      <c r="E198" t="s">
+        <v>9</v>
+      </c>
+      <c r="F198" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>81</v>
+      </c>
+      <c r="B199">
+        <v>2</v>
+      </c>
+      <c r="C199" t="s">
+        <v>46</v>
+      </c>
+      <c r="D199">
+        <v>2</v>
+      </c>
+      <c r="E199" t="s">
+        <v>9</v>
+      </c>
+      <c r="F199" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>81</v>
+      </c>
+      <c r="B200">
+        <v>3</v>
+      </c>
+      <c r="C200" t="s">
+        <v>46</v>
+      </c>
+      <c r="D200">
+        <v>2</v>
+      </c>
+      <c r="E200" t="s">
+        <v>9</v>
+      </c>
+      <c r="F200" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>81</v>
+      </c>
+      <c r="B201">
+        <v>4</v>
+      </c>
+      <c r="C201" t="s">
+        <v>46</v>
+      </c>
+      <c r="D201">
+        <v>2</v>
+      </c>
+      <c r="E201" t="s">
+        <v>9</v>
+      </c>
+      <c r="F201" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>81</v>
+      </c>
+      <c r="B202">
+        <v>5</v>
+      </c>
+      <c r="C202" t="s">
+        <v>46</v>
+      </c>
+      <c r="D202">
+        <v>2</v>
+      </c>
+      <c r="E202" t="s">
+        <v>9</v>
+      </c>
+      <c r="F202" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>81</v>
+      </c>
+      <c r="B203">
+        <v>6</v>
+      </c>
+      <c r="C203" t="s">
+        <v>46</v>
+      </c>
+      <c r="D203">
+        <v>2</v>
+      </c>
+      <c r="E203" t="s">
+        <v>9</v>
+      </c>
+      <c r="F203" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>81</v>
+      </c>
+      <c r="B204">
+        <v>7</v>
+      </c>
+      <c r="C204" t="s">
+        <v>46</v>
+      </c>
+      <c r="D204">
+        <v>2</v>
+      </c>
+      <c r="E204" t="s">
+        <v>9</v>
+      </c>
+      <c r="F204" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>81</v>
+      </c>
+      <c r="B205">
+        <v>1</v>
+      </c>
+      <c r="C205" t="s">
+        <v>51</v>
+      </c>
+      <c r="D205">
+        <v>1</v>
+      </c>
+      <c r="E205" t="s">
+        <v>9</v>
+      </c>
+      <c r="F205" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>81</v>
+      </c>
+      <c r="B206">
+        <v>2</v>
+      </c>
+      <c r="C206" t="s">
+        <v>51</v>
+      </c>
+      <c r="D206">
+        <v>1</v>
+      </c>
+      <c r="E206" t="s">
+        <v>9</v>
+      </c>
+      <c r="F206" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>81</v>
+      </c>
+      <c r="B207">
+        <v>3</v>
+      </c>
+      <c r="C207" t="s">
+        <v>51</v>
+      </c>
+      <c r="D207">
+        <v>1</v>
+      </c>
+      <c r="E207" t="s">
+        <v>9</v>
+      </c>
+      <c r="F207" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>81</v>
+      </c>
+      <c r="B208">
+        <v>4</v>
+      </c>
+      <c r="C208" t="s">
+        <v>51</v>
+      </c>
+      <c r="D208">
+        <v>1</v>
+      </c>
+      <c r="E208" t="s">
+        <v>9</v>
+      </c>
+      <c r="F208" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>81</v>
+      </c>
+      <c r="B209">
+        <v>5</v>
+      </c>
+      <c r="C209" t="s">
+        <v>51</v>
+      </c>
+      <c r="D209">
+        <v>1</v>
+      </c>
+      <c r="E209" t="s">
+        <v>9</v>
+      </c>
+      <c r="F209" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>81</v>
+      </c>
+      <c r="B210">
+        <v>6</v>
+      </c>
+      <c r="C210" t="s">
+        <v>51</v>
+      </c>
+      <c r="D210">
+        <v>1</v>
+      </c>
+      <c r="E210" t="s">
+        <v>9</v>
+      </c>
+      <c r="F210" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>81</v>
+      </c>
+      <c r="B211">
+        <v>7</v>
+      </c>
+      <c r="C211" t="s">
+        <v>51</v>
+      </c>
+      <c r="D211">
+        <v>1</v>
+      </c>
+      <c r="E211" t="s">
+        <v>9</v>
+      </c>
+      <c r="F211" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>81</v>
+      </c>
+      <c r="B212">
+        <v>1</v>
+      </c>
+      <c r="C212" t="s">
+        <v>54</v>
+      </c>
+      <c r="D212">
+        <v>1</v>
+      </c>
+      <c r="E212" t="s">
+        <v>9</v>
+      </c>
+      <c r="F212" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>81</v>
+      </c>
+      <c r="B213">
+        <v>2</v>
+      </c>
+      <c r="C213" t="s">
+        <v>54</v>
+      </c>
+      <c r="D213">
+        <v>1</v>
+      </c>
+      <c r="E213" t="s">
+        <v>9</v>
+      </c>
+      <c r="F213" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>81</v>
+      </c>
+      <c r="B214">
+        <v>3</v>
+      </c>
+      <c r="C214" t="s">
+        <v>54</v>
+      </c>
+      <c r="D214">
+        <v>1</v>
+      </c>
+      <c r="E214" t="s">
+        <v>9</v>
+      </c>
+      <c r="F214" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>81</v>
+      </c>
+      <c r="B215">
+        <v>4</v>
+      </c>
+      <c r="C215" t="s">
+        <v>54</v>
+      </c>
+      <c r="D215">
+        <v>1</v>
+      </c>
+      <c r="E215" t="s">
+        <v>9</v>
+      </c>
+      <c r="F215" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>81</v>
+      </c>
+      <c r="B216">
+        <v>5</v>
+      </c>
+      <c r="C216" t="s">
+        <v>54</v>
+      </c>
+      <c r="D216">
+        <v>1</v>
+      </c>
+      <c r="E216" t="s">
+        <v>9</v>
+      </c>
+      <c r="F216" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>81</v>
+      </c>
+      <c r="B217">
+        <v>6</v>
+      </c>
+      <c r="C217" t="s">
+        <v>54</v>
+      </c>
+      <c r="D217">
+        <v>1</v>
+      </c>
+      <c r="E217" t="s">
+        <v>9</v>
+      </c>
+      <c r="F217" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>81</v>
+      </c>
+      <c r="B218">
+        <v>7</v>
+      </c>
+      <c r="C218" t="s">
+        <v>54</v>
+      </c>
+      <c r="D218">
+        <v>1</v>
+      </c>
+      <c r="E218" t="s">
+        <v>9</v>
+      </c>
+      <c r="F218" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>81</v>
+      </c>
+      <c r="B219">
+        <v>1</v>
+      </c>
+      <c r="C219" t="s">
+        <v>57</v>
+      </c>
+      <c r="D219">
+        <v>1</v>
+      </c>
+      <c r="E219" t="s">
+        <v>9</v>
+      </c>
+      <c r="F219" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>81</v>
+      </c>
+      <c r="B220">
+        <v>2</v>
+      </c>
+      <c r="C220" t="s">
+        <v>57</v>
+      </c>
+      <c r="D220">
+        <v>1</v>
+      </c>
+      <c r="E220" t="s">
+        <v>9</v>
+      </c>
+      <c r="F220" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>81</v>
+      </c>
+      <c r="B221">
+        <v>3</v>
+      </c>
+      <c r="C221" t="s">
+        <v>57</v>
+      </c>
+      <c r="D221">
+        <v>1</v>
+      </c>
+      <c r="E221" t="s">
+        <v>9</v>
+      </c>
+      <c r="F221" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>81</v>
+      </c>
+      <c r="B222">
+        <v>4</v>
+      </c>
+      <c r="C222" t="s">
+        <v>57</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
+      </c>
+      <c r="E222" t="s">
+        <v>9</v>
+      </c>
+      <c r="F222" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>81</v>
+      </c>
+      <c r="B223">
+        <v>5</v>
+      </c>
+      <c r="C223" t="s">
+        <v>57</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
+      </c>
+      <c r="E223" t="s">
+        <v>9</v>
+      </c>
+      <c r="F223" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>81</v>
+      </c>
+      <c r="B224">
+        <v>6</v>
+      </c>
+      <c r="C224" t="s">
+        <v>57</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
+      <c r="E224" t="s">
+        <v>9</v>
+      </c>
+      <c r="F224" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>81</v>
+      </c>
+      <c r="B225">
+        <v>7</v>
+      </c>
+      <c r="C225" t="s">
+        <v>57</v>
+      </c>
+      <c r="D225">
+        <v>1</v>
+      </c>
+      <c r="E225" t="s">
+        <v>9</v>
+      </c>
+      <c r="F225" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>81</v>
+      </c>
+      <c r="B226">
+        <v>1</v>
+      </c>
+      <c r="C226" t="s">
+        <v>5</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="E226" t="s">
+        <v>9</v>
+      </c>
+      <c r="F226" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>81</v>
+      </c>
+      <c r="B227">
+        <v>2</v>
+      </c>
+      <c r="C227" t="s">
+        <v>5</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+      <c r="E227" t="s">
+        <v>9</v>
+      </c>
+      <c r="F227" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>81</v>
+      </c>
+      <c r="B228">
+        <v>3</v>
+      </c>
+      <c r="C228" t="s">
+        <v>5</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+      <c r="E228" t="s">
+        <v>9</v>
+      </c>
+      <c r="F228" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>81</v>
+      </c>
+      <c r="B229">
+        <v>4</v>
+      </c>
+      <c r="C229" t="s">
+        <v>5</v>
+      </c>
+      <c r="D229">
+        <v>1</v>
+      </c>
+      <c r="E229" t="s">
+        <v>9</v>
+      </c>
+      <c r="F229" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>81</v>
+      </c>
+      <c r="B230">
+        <v>5</v>
+      </c>
+      <c r="C230" t="s">
+        <v>5</v>
+      </c>
+      <c r="D230">
+        <v>1</v>
+      </c>
+      <c r="E230" t="s">
+        <v>9</v>
+      </c>
+      <c r="F230" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>81</v>
+      </c>
+      <c r="B231">
+        <v>6</v>
+      </c>
+      <c r="C231" t="s">
+        <v>5</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+      <c r="E231" t="s">
+        <v>9</v>
+      </c>
+      <c r="F231" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>81</v>
+      </c>
+      <c r="B232">
+        <v>7</v>
+      </c>
+      <c r="C232" t="s">
+        <v>5</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
+      </c>
+      <c r="E232" t="s">
+        <v>9</v>
+      </c>
+      <c r="F232" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>81</v>
+      </c>
+      <c r="B233">
+        <v>1</v>
+      </c>
+      <c r="C233" t="s">
+        <v>62</v>
+      </c>
+      <c r="D233">
+        <v>1</v>
+      </c>
+      <c r="E233" t="s">
+        <v>9</v>
+      </c>
+      <c r="F233" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>81</v>
+      </c>
+      <c r="B234">
+        <v>2</v>
+      </c>
+      <c r="C234" t="s">
+        <v>62</v>
+      </c>
+      <c r="D234">
+        <v>1</v>
+      </c>
+      <c r="E234" t="s">
+        <v>9</v>
+      </c>
+      <c r="F234" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>81</v>
+      </c>
+      <c r="B235">
+        <v>3</v>
+      </c>
+      <c r="C235" t="s">
+        <v>62</v>
+      </c>
+      <c r="D235">
+        <v>1</v>
+      </c>
+      <c r="E235" t="s">
+        <v>9</v>
+      </c>
+      <c r="F235" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>81</v>
+      </c>
+      <c r="B236">
+        <v>4</v>
+      </c>
+      <c r="C236" t="s">
+        <v>62</v>
+      </c>
+      <c r="D236">
+        <v>1</v>
+      </c>
+      <c r="E236" t="s">
+        <v>9</v>
+      </c>
+      <c r="F236" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>81</v>
+      </c>
+      <c r="B237">
+        <v>5</v>
+      </c>
+      <c r="C237" t="s">
+        <v>62</v>
+      </c>
+      <c r="D237">
+        <v>1</v>
+      </c>
+      <c r="E237" t="s">
+        <v>9</v>
+      </c>
+      <c r="F237" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>81</v>
+      </c>
+      <c r="B238">
+        <v>6</v>
+      </c>
+      <c r="C238" t="s">
+        <v>62</v>
+      </c>
+      <c r="D238">
+        <v>1</v>
+      </c>
+      <c r="E238" t="s">
+        <v>9</v>
+      </c>
+      <c r="F238" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>81</v>
+      </c>
+      <c r="B239">
+        <v>7</v>
+      </c>
+      <c r="C239" t="s">
+        <v>62</v>
+      </c>
+      <c r="D239">
+        <v>1</v>
+      </c>
+      <c r="E239" t="s">
+        <v>9</v>
+      </c>
+      <c r="F239" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>81</v>
+      </c>
+      <c r="B240">
+        <v>1</v>
+      </c>
+      <c r="C240" t="s">
+        <v>65</v>
+      </c>
+      <c r="D240">
+        <v>1</v>
+      </c>
+      <c r="E240" t="s">
+        <v>9</v>
+      </c>
+      <c r="F240" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>81</v>
+      </c>
+      <c r="B241">
+        <v>2</v>
+      </c>
+      <c r="C241" t="s">
+        <v>65</v>
+      </c>
+      <c r="D241">
+        <v>1</v>
+      </c>
+      <c r="E241" t="s">
+        <v>9</v>
+      </c>
+      <c r="F241" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>81</v>
+      </c>
+      <c r="B242">
+        <v>3</v>
+      </c>
+      <c r="C242" t="s">
+        <v>65</v>
+      </c>
+      <c r="D242">
+        <v>1</v>
+      </c>
+      <c r="E242" t="s">
+        <v>9</v>
+      </c>
+      <c r="F242" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>81</v>
+      </c>
+      <c r="B243">
+        <v>4</v>
+      </c>
+      <c r="C243" t="s">
+        <v>65</v>
+      </c>
+      <c r="D243">
+        <v>1</v>
+      </c>
+      <c r="E243" t="s">
+        <v>9</v>
+      </c>
+      <c r="F243" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>81</v>
+      </c>
+      <c r="B244">
+        <v>5</v>
+      </c>
+      <c r="C244" t="s">
+        <v>65</v>
+      </c>
+      <c r="D244">
+        <v>1</v>
+      </c>
+      <c r="E244" t="s">
+        <v>9</v>
+      </c>
+      <c r="F244" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>81</v>
+      </c>
+      <c r="B245">
+        <v>6</v>
+      </c>
+      <c r="C245" t="s">
+        <v>65</v>
+      </c>
+      <c r="D245">
+        <v>1</v>
+      </c>
+      <c r="E245" t="s">
+        <v>9</v>
+      </c>
+      <c r="F245" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>81</v>
+      </c>
+      <c r="B246">
+        <v>7</v>
+      </c>
+      <c r="C246" t="s">
+        <v>65</v>
+      </c>
+      <c r="D246">
+        <v>1</v>
+      </c>
+      <c r="E246" t="s">
+        <v>9</v>
+      </c>
+      <c r="F246" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>81</v>
+      </c>
+      <c r="B247">
+        <v>1</v>
+      </c>
+      <c r="C247" t="s">
+        <v>66</v>
+      </c>
+      <c r="D247">
+        <v>1</v>
+      </c>
+      <c r="E247" t="s">
+        <v>9</v>
+      </c>
+      <c r="F247" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>81</v>
+      </c>
+      <c r="B248">
+        <v>2</v>
+      </c>
+      <c r="C248" t="s">
+        <v>66</v>
+      </c>
+      <c r="D248">
+        <v>1</v>
+      </c>
+      <c r="E248" t="s">
+        <v>9</v>
+      </c>
+      <c r="F248" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>81</v>
+      </c>
+      <c r="B249">
+        <v>3</v>
+      </c>
+      <c r="C249" t="s">
+        <v>66</v>
+      </c>
+      <c r="D249">
+        <v>1</v>
+      </c>
+      <c r="E249" t="s">
+        <v>9</v>
+      </c>
+      <c r="F249" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>81</v>
+      </c>
+      <c r="B250">
+        <v>4</v>
+      </c>
+      <c r="C250" t="s">
+        <v>66</v>
+      </c>
+      <c r="D250">
+        <v>1</v>
+      </c>
+      <c r="E250" t="s">
+        <v>9</v>
+      </c>
+      <c r="F250" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>81</v>
+      </c>
+      <c r="B251">
+        <v>5</v>
+      </c>
+      <c r="C251" t="s">
+        <v>66</v>
+      </c>
+      <c r="D251">
+        <v>1</v>
+      </c>
+      <c r="E251" t="s">
+        <v>9</v>
+      </c>
+      <c r="F251" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>81</v>
+      </c>
+      <c r="B252">
+        <v>6</v>
+      </c>
+      <c r="C252" t="s">
+        <v>66</v>
+      </c>
+      <c r="D252">
+        <v>1</v>
+      </c>
+      <c r="E252" t="s">
+        <v>9</v>
+      </c>
+      <c r="F252" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>81</v>
+      </c>
+      <c r="B253">
+        <v>7</v>
+      </c>
+      <c r="C253" t="s">
+        <v>66</v>
+      </c>
+      <c r="D253">
+        <v>1</v>
+      </c>
+      <c r="E253" t="s">
+        <v>9</v>
+      </c>
+      <c r="F253" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>81</v>
+      </c>
+      <c r="B254">
+        <v>1</v>
+      </c>
+      <c r="C254" t="s">
+        <v>66</v>
+      </c>
+      <c r="D254">
+        <v>10</v>
+      </c>
+      <c r="E254" t="s">
+        <v>9</v>
+      </c>
+      <c r="F254" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>81</v>
+      </c>
+      <c r="B255">
+        <v>2</v>
+      </c>
+      <c r="C255" t="s">
+        <v>66</v>
+      </c>
+      <c r="D255">
+        <v>10</v>
+      </c>
+      <c r="E255" t="s">
+        <v>9</v>
+      </c>
+      <c r="F255" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>81</v>
+      </c>
+      <c r="B256">
+        <v>3</v>
+      </c>
+      <c r="C256" t="s">
+        <v>66</v>
+      </c>
+      <c r="D256">
+        <v>10</v>
+      </c>
+      <c r="E256" t="s">
+        <v>9</v>
+      </c>
+      <c r="F256" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>81</v>
+      </c>
+      <c r="B257">
+        <v>4</v>
+      </c>
+      <c r="C257" t="s">
+        <v>66</v>
+      </c>
+      <c r="D257">
+        <v>10</v>
+      </c>
+      <c r="E257" t="s">
+        <v>9</v>
+      </c>
+      <c r="F257" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>81</v>
+      </c>
+      <c r="B258">
+        <v>5</v>
+      </c>
+      <c r="C258" t="s">
+        <v>66</v>
+      </c>
+      <c r="D258">
+        <v>10</v>
+      </c>
+      <c r="E258" t="s">
+        <v>9</v>
+      </c>
+      <c r="F258" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>81</v>
+      </c>
+      <c r="B259">
+        <v>6</v>
+      </c>
+      <c r="C259" t="s">
+        <v>66</v>
+      </c>
+      <c r="D259">
+        <v>10</v>
+      </c>
+      <c r="E259" t="s">
+        <v>9</v>
+      </c>
+      <c r="F259" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>81</v>
+      </c>
+      <c r="B260">
+        <v>7</v>
+      </c>
+      <c r="C260" t="s">
+        <v>66</v>
+      </c>
+      <c r="D260">
+        <v>10</v>
+      </c>
+      <c r="E260" t="s">
+        <v>9</v>
+      </c>
+      <c r="F260" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>81</v>
+      </c>
+      <c r="B261">
+        <v>1</v>
+      </c>
+      <c r="C261" t="s">
+        <v>66</v>
+      </c>
+      <c r="D261">
+        <v>2</v>
+      </c>
+      <c r="E261" t="s">
+        <v>9</v>
+      </c>
+      <c r="F261" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>81</v>
+      </c>
+      <c r="B262">
+        <v>2</v>
+      </c>
+      <c r="C262" t="s">
+        <v>66</v>
+      </c>
+      <c r="D262">
+        <v>2</v>
+      </c>
+      <c r="E262" t="s">
+        <v>9</v>
+      </c>
+      <c r="F262" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>81</v>
+      </c>
+      <c r="B263">
+        <v>3</v>
+      </c>
+      <c r="C263" t="s">
+        <v>66</v>
+      </c>
+      <c r="D263">
+        <v>2</v>
+      </c>
+      <c r="E263" t="s">
+        <v>9</v>
+      </c>
+      <c r="F263" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>81</v>
+      </c>
+      <c r="B264">
+        <v>4</v>
+      </c>
+      <c r="C264" t="s">
+        <v>66</v>
+      </c>
+      <c r="D264">
+        <v>2</v>
+      </c>
+      <c r="E264" t="s">
+        <v>9</v>
+      </c>
+      <c r="F264" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>81</v>
+      </c>
+      <c r="B265">
+        <v>5</v>
+      </c>
+      <c r="C265" t="s">
+        <v>66</v>
+      </c>
+      <c r="D265">
+        <v>2</v>
+      </c>
+      <c r="E265" t="s">
+        <v>9</v>
+      </c>
+      <c r="F265" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>81</v>
+      </c>
+      <c r="B266">
+        <v>6</v>
+      </c>
+      <c r="C266" t="s">
+        <v>66</v>
+      </c>
+      <c r="D266">
+        <v>2</v>
+      </c>
+      <c r="E266" t="s">
+        <v>9</v>
+      </c>
+      <c r="F266" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>81</v>
+      </c>
+      <c r="B267">
+        <v>7</v>
+      </c>
+      <c r="C267" t="s">
+        <v>66</v>
+      </c>
+      <c r="D267">
+        <v>2</v>
+      </c>
+      <c r="E267" t="s">
+        <v>9</v>
+      </c>
+      <c r="F267" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>81</v>
+      </c>
+      <c r="B268">
+        <v>1</v>
+      </c>
+      <c r="C268" t="s">
+        <v>66</v>
+      </c>
+      <c r="D268">
+        <v>3</v>
+      </c>
+      <c r="E268" t="s">
+        <v>9</v>
+      </c>
+      <c r="F268" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>81</v>
+      </c>
+      <c r="B269">
+        <v>2</v>
+      </c>
+      <c r="C269" t="s">
+        <v>66</v>
+      </c>
+      <c r="D269">
+        <v>3</v>
+      </c>
+      <c r="E269" t="s">
+        <v>9</v>
+      </c>
+      <c r="F269" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>81</v>
+      </c>
+      <c r="B270">
+        <v>3</v>
+      </c>
+      <c r="C270" t="s">
+        <v>66</v>
+      </c>
+      <c r="D270">
+        <v>3</v>
+      </c>
+      <c r="E270" t="s">
+        <v>9</v>
+      </c>
+      <c r="F270" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>81</v>
+      </c>
+      <c r="B271">
+        <v>4</v>
+      </c>
+      <c r="C271" t="s">
+        <v>66</v>
+      </c>
+      <c r="D271">
+        <v>3</v>
+      </c>
+      <c r="E271" t="s">
+        <v>9</v>
+      </c>
+      <c r="F271" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>81</v>
+      </c>
+      <c r="B272">
+        <v>5</v>
+      </c>
+      <c r="C272" t="s">
+        <v>66</v>
+      </c>
+      <c r="D272">
+        <v>3</v>
+      </c>
+      <c r="E272" t="s">
+        <v>9</v>
+      </c>
+      <c r="F272" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>81</v>
+      </c>
+      <c r="B273">
+        <v>6</v>
+      </c>
+      <c r="C273" t="s">
+        <v>66</v>
+      </c>
+      <c r="D273">
+        <v>3</v>
+      </c>
+      <c r="E273" t="s">
+        <v>9</v>
+      </c>
+      <c r="F273" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>81</v>
+      </c>
+      <c r="B274">
+        <v>7</v>
+      </c>
+      <c r="C274" t="s">
+        <v>66</v>
+      </c>
+      <c r="D274">
+        <v>3</v>
+      </c>
+      <c r="E274" t="s">
+        <v>9</v>
+      </c>
+      <c r="F274" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>81</v>
+      </c>
+      <c r="B275">
+        <v>1</v>
+      </c>
+      <c r="C275" t="s">
+        <v>66</v>
+      </c>
+      <c r="D275">
+        <v>4</v>
+      </c>
+      <c r="E275" t="s">
+        <v>9</v>
+      </c>
+      <c r="F275" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>81</v>
+      </c>
+      <c r="B276">
+        <v>2</v>
+      </c>
+      <c r="C276" t="s">
+        <v>66</v>
+      </c>
+      <c r="D276">
+        <v>4</v>
+      </c>
+      <c r="E276" t="s">
+        <v>9</v>
+      </c>
+      <c r="F276" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>81</v>
+      </c>
+      <c r="B277">
+        <v>3</v>
+      </c>
+      <c r="C277" t="s">
+        <v>66</v>
+      </c>
+      <c r="D277">
+        <v>4</v>
+      </c>
+      <c r="E277" t="s">
+        <v>9</v>
+      </c>
+      <c r="F277" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>81</v>
+      </c>
+      <c r="B278">
+        <v>4</v>
+      </c>
+      <c r="C278" t="s">
+        <v>66</v>
+      </c>
+      <c r="D278">
+        <v>4</v>
+      </c>
+      <c r="E278" t="s">
+        <v>9</v>
+      </c>
+      <c r="F278" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>81</v>
+      </c>
+      <c r="B279">
+        <v>5</v>
+      </c>
+      <c r="C279" t="s">
+        <v>66</v>
+      </c>
+      <c r="D279">
+        <v>4</v>
+      </c>
+      <c r="E279" t="s">
+        <v>9</v>
+      </c>
+      <c r="F279" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>81</v>
+      </c>
+      <c r="B280">
+        <v>6</v>
+      </c>
+      <c r="C280" t="s">
+        <v>66</v>
+      </c>
+      <c r="D280">
+        <v>4</v>
+      </c>
+      <c r="E280" t="s">
+        <v>9</v>
+      </c>
+      <c r="F280" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>81</v>
+      </c>
+      <c r="B281">
+        <v>7</v>
+      </c>
+      <c r="C281" t="s">
+        <v>66</v>
+      </c>
+      <c r="D281">
+        <v>4</v>
+      </c>
+      <c r="E281" t="s">
+        <v>9</v>
+      </c>
+      <c r="F281" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>81</v>
+      </c>
+      <c r="B282">
+        <v>1</v>
+      </c>
+      <c r="C282" t="s">
+        <v>66</v>
+      </c>
+      <c r="D282">
+        <v>5</v>
+      </c>
+      <c r="E282" t="s">
+        <v>9</v>
+      </c>
+      <c r="F282" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>81</v>
+      </c>
+      <c r="B283">
+        <v>2</v>
+      </c>
+      <c r="C283" t="s">
+        <v>66</v>
+      </c>
+      <c r="D283">
+        <v>5</v>
+      </c>
+      <c r="E283" t="s">
+        <v>9</v>
+      </c>
+      <c r="F283" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>81</v>
+      </c>
+      <c r="B284">
+        <v>3</v>
+      </c>
+      <c r="C284" t="s">
+        <v>66</v>
+      </c>
+      <c r="D284">
+        <v>5</v>
+      </c>
+      <c r="E284" t="s">
+        <v>9</v>
+      </c>
+      <c r="F284" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>81</v>
+      </c>
+      <c r="B285">
+        <v>4</v>
+      </c>
+      <c r="C285" t="s">
+        <v>66</v>
+      </c>
+      <c r="D285">
+        <v>5</v>
+      </c>
+      <c r="E285" t="s">
+        <v>9</v>
+      </c>
+      <c r="F285" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>81</v>
+      </c>
+      <c r="B286">
+        <v>5</v>
+      </c>
+      <c r="C286" t="s">
+        <v>66</v>
+      </c>
+      <c r="D286">
+        <v>5</v>
+      </c>
+      <c r="E286" t="s">
+        <v>9</v>
+      </c>
+      <c r="F286" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>81</v>
+      </c>
+      <c r="B287">
+        <v>6</v>
+      </c>
+      <c r="C287" t="s">
+        <v>66</v>
+      </c>
+      <c r="D287">
+        <v>5</v>
+      </c>
+      <c r="E287" t="s">
+        <v>9</v>
+      </c>
+      <c r="F287" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>81</v>
+      </c>
+      <c r="B288">
+        <v>7</v>
+      </c>
+      <c r="C288" t="s">
+        <v>66</v>
+      </c>
+      <c r="D288">
+        <v>5</v>
+      </c>
+      <c r="E288" t="s">
+        <v>9</v>
+      </c>
+      <c r="F288" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>81</v>
+      </c>
+      <c r="B289">
+        <v>1</v>
+      </c>
+      <c r="C289" t="s">
+        <v>66</v>
+      </c>
+      <c r="D289">
+        <v>6</v>
+      </c>
+      <c r="E289" t="s">
+        <v>9</v>
+      </c>
+      <c r="F289" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>81</v>
+      </c>
+      <c r="B290">
+        <v>2</v>
+      </c>
+      <c r="C290" t="s">
+        <v>66</v>
+      </c>
+      <c r="D290">
+        <v>6</v>
+      </c>
+      <c r="E290" t="s">
+        <v>9</v>
+      </c>
+      <c r="F290" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>81</v>
+      </c>
+      <c r="B291">
+        <v>3</v>
+      </c>
+      <c r="C291" t="s">
+        <v>66</v>
+      </c>
+      <c r="D291">
+        <v>6</v>
+      </c>
+      <c r="E291" t="s">
+        <v>9</v>
+      </c>
+      <c r="F291" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>81</v>
+      </c>
+      <c r="B292">
+        <v>4</v>
+      </c>
+      <c r="C292" t="s">
+        <v>66</v>
+      </c>
+      <c r="D292">
+        <v>6</v>
+      </c>
+      <c r="E292" t="s">
+        <v>9</v>
+      </c>
+      <c r="F292" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>81</v>
+      </c>
+      <c r="B293">
+        <v>5</v>
+      </c>
+      <c r="C293" t="s">
+        <v>66</v>
+      </c>
+      <c r="D293">
+        <v>6</v>
+      </c>
+      <c r="E293" t="s">
+        <v>9</v>
+      </c>
+      <c r="F293" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>81</v>
+      </c>
+      <c r="B294">
+        <v>6</v>
+      </c>
+      <c r="C294" t="s">
+        <v>66</v>
+      </c>
+      <c r="D294">
+        <v>6</v>
+      </c>
+      <c r="E294" t="s">
+        <v>9</v>
+      </c>
+      <c r="F294" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>81</v>
+      </c>
+      <c r="B295">
+        <v>7</v>
+      </c>
+      <c r="C295" t="s">
+        <v>66</v>
+      </c>
+      <c r="D295">
+        <v>6</v>
+      </c>
+      <c r="E295" t="s">
+        <v>9</v>
+      </c>
+      <c r="F295" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>81</v>
+      </c>
+      <c r="B296">
+        <v>1</v>
+      </c>
+      <c r="C296" t="s">
+        <v>66</v>
+      </c>
+      <c r="D296">
+        <v>7</v>
+      </c>
+      <c r="E296" t="s">
+        <v>9</v>
+      </c>
+      <c r="F296" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>81</v>
+      </c>
+      <c r="B297">
+        <v>2</v>
+      </c>
+      <c r="C297" t="s">
+        <v>66</v>
+      </c>
+      <c r="D297">
+        <v>7</v>
+      </c>
+      <c r="E297" t="s">
+        <v>9</v>
+      </c>
+      <c r="F297" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>81</v>
+      </c>
+      <c r="B298">
+        <v>3</v>
+      </c>
+      <c r="C298" t="s">
+        <v>66</v>
+      </c>
+      <c r="D298">
+        <v>7</v>
+      </c>
+      <c r="E298" t="s">
+        <v>9</v>
+      </c>
+      <c r="F298" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>81</v>
+      </c>
+      <c r="B299">
+        <v>4</v>
+      </c>
+      <c r="C299" t="s">
+        <v>66</v>
+      </c>
+      <c r="D299">
+        <v>7</v>
+      </c>
+      <c r="E299" t="s">
+        <v>9</v>
+      </c>
+      <c r="F299" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>81</v>
+      </c>
+      <c r="B300">
+        <v>5</v>
+      </c>
+      <c r="C300" t="s">
+        <v>66</v>
+      </c>
+      <c r="D300">
+        <v>7</v>
+      </c>
+      <c r="E300" t="s">
+        <v>9</v>
+      </c>
+      <c r="F300" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>81</v>
+      </c>
+      <c r="B301">
+        <v>6</v>
+      </c>
+      <c r="C301" t="s">
+        <v>66</v>
+      </c>
+      <c r="D301">
+        <v>7</v>
+      </c>
+      <c r="E301" t="s">
+        <v>9</v>
+      </c>
+      <c r="F301" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>81</v>
+      </c>
+      <c r="B302">
+        <v>7</v>
+      </c>
+      <c r="C302" t="s">
+        <v>66</v>
+      </c>
+      <c r="D302">
+        <v>7</v>
+      </c>
+      <c r="E302" t="s">
+        <v>9</v>
+      </c>
+      <c r="F302" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>81</v>
+      </c>
+      <c r="B303">
+        <v>1</v>
+      </c>
+      <c r="C303" t="s">
+        <v>66</v>
+      </c>
+      <c r="D303">
+        <v>8</v>
+      </c>
+      <c r="E303" t="s">
+        <v>9</v>
+      </c>
+      <c r="F303" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>81</v>
+      </c>
+      <c r="B304">
+        <v>2</v>
+      </c>
+      <c r="C304" t="s">
+        <v>66</v>
+      </c>
+      <c r="D304">
+        <v>8</v>
+      </c>
+      <c r="E304" t="s">
+        <v>9</v>
+      </c>
+      <c r="F304" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>81</v>
+      </c>
+      <c r="B305">
+        <v>3</v>
+      </c>
+      <c r="C305" t="s">
+        <v>66</v>
+      </c>
+      <c r="D305">
+        <v>8</v>
+      </c>
+      <c r="E305" t="s">
+        <v>9</v>
+      </c>
+      <c r="F305" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>81</v>
+      </c>
+      <c r="B306">
+        <v>4</v>
+      </c>
+      <c r="C306" t="s">
+        <v>66</v>
+      </c>
+      <c r="D306">
+        <v>8</v>
+      </c>
+      <c r="E306" t="s">
+        <v>9</v>
+      </c>
+      <c r="F306" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>81</v>
+      </c>
+      <c r="B307">
+        <v>5</v>
+      </c>
+      <c r="C307" t="s">
+        <v>66</v>
+      </c>
+      <c r="D307">
+        <v>8</v>
+      </c>
+      <c r="E307" t="s">
+        <v>9</v>
+      </c>
+      <c r="F307" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>81</v>
+      </c>
+      <c r="B308">
+        <v>6</v>
+      </c>
+      <c r="C308" t="s">
+        <v>66</v>
+      </c>
+      <c r="D308">
+        <v>8</v>
+      </c>
+      <c r="E308" t="s">
+        <v>9</v>
+      </c>
+      <c r="F308" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>81</v>
+      </c>
+      <c r="B309">
+        <v>7</v>
+      </c>
+      <c r="C309" t="s">
+        <v>66</v>
+      </c>
+      <c r="D309">
+        <v>8</v>
+      </c>
+      <c r="E309" t="s">
+        <v>9</v>
+      </c>
+      <c r="F309" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>81</v>
+      </c>
+      <c r="B310">
+        <v>1</v>
+      </c>
+      <c r="C310" t="s">
+        <v>66</v>
+      </c>
+      <c r="D310">
+        <v>9</v>
+      </c>
+      <c r="E310" t="s">
+        <v>9</v>
+      </c>
+      <c r="F310" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>81</v>
+      </c>
+      <c r="B311">
+        <v>2</v>
+      </c>
+      <c r="C311" t="s">
+        <v>66</v>
+      </c>
+      <c r="D311">
+        <v>9</v>
+      </c>
+      <c r="E311" t="s">
+        <v>9</v>
+      </c>
+      <c r="F311" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>81</v>
+      </c>
+      <c r="B312">
+        <v>3</v>
+      </c>
+      <c r="C312" t="s">
+        <v>66</v>
+      </c>
+      <c r="D312">
+        <v>9</v>
+      </c>
+      <c r="E312" t="s">
+        <v>9</v>
+      </c>
+      <c r="F312" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>81</v>
+      </c>
+      <c r="B313">
+        <v>4</v>
+      </c>
+      <c r="C313" t="s">
+        <v>66</v>
+      </c>
+      <c r="D313">
+        <v>9</v>
+      </c>
+      <c r="E313" t="s">
+        <v>9</v>
+      </c>
+      <c r="F313" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>81</v>
+      </c>
+      <c r="B314">
+        <v>5</v>
+      </c>
+      <c r="C314" t="s">
+        <v>66</v>
+      </c>
+      <c r="D314">
+        <v>9</v>
+      </c>
+      <c r="E314" t="s">
+        <v>9</v>
+      </c>
+      <c r="F314" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>81</v>
+      </c>
+      <c r="B315">
+        <v>6</v>
+      </c>
+      <c r="C315" t="s">
+        <v>66</v>
+      </c>
+      <c r="D315">
+        <v>9</v>
+      </c>
+      <c r="E315" t="s">
+        <v>9</v>
+      </c>
+      <c r="F315" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>81</v>
+      </c>
+      <c r="B316">
+        <v>7</v>
+      </c>
+      <c r="C316" t="s">
+        <v>66</v>
+      </c>
+      <c r="D316">
+        <v>9</v>
+      </c>
+      <c r="E316" t="s">
+        <v>9</v>
+      </c>
+      <c r="F316" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>81</v>
+      </c>
+      <c r="B317">
+        <v>1</v>
+      </c>
+      <c r="C317" t="s">
+        <v>76</v>
+      </c>
+      <c r="D317">
+        <v>1</v>
+      </c>
+      <c r="E317" t="s">
+        <v>9</v>
+      </c>
+      <c r="F317" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>81</v>
+      </c>
+      <c r="B318">
+        <v>2</v>
+      </c>
+      <c r="C318" t="s">
+        <v>76</v>
+      </c>
+      <c r="D318">
+        <v>1</v>
+      </c>
+      <c r="E318" t="s">
+        <v>9</v>
+      </c>
+      <c r="F318" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>81</v>
+      </c>
+      <c r="B319">
+        <v>3</v>
+      </c>
+      <c r="C319" t="s">
+        <v>76</v>
+      </c>
+      <c r="D319">
+        <v>1</v>
+      </c>
+      <c r="E319" t="s">
+        <v>9</v>
+      </c>
+      <c r="F319" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>81</v>
+      </c>
+      <c r="B320">
+        <v>4</v>
+      </c>
+      <c r="C320" t="s">
+        <v>76</v>
+      </c>
+      <c r="D320">
+        <v>1</v>
+      </c>
+      <c r="E320" t="s">
+        <v>9</v>
+      </c>
+      <c r="F320" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>81</v>
+      </c>
+      <c r="B321">
+        <v>5</v>
+      </c>
+      <c r="C321" t="s">
+        <v>76</v>
+      </c>
+      <c r="D321">
+        <v>1</v>
+      </c>
+      <c r="E321" t="s">
+        <v>9</v>
+      </c>
+      <c r="F321" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>81</v>
+      </c>
+      <c r="B322">
+        <v>6</v>
+      </c>
+      <c r="C322" t="s">
+        <v>76</v>
+      </c>
+      <c r="D322">
+        <v>1</v>
+      </c>
+      <c r="E322" t="s">
+        <v>9</v>
+      </c>
+      <c r="F322" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>81</v>
+      </c>
+      <c r="B323">
+        <v>7</v>
+      </c>
+      <c r="C323" t="s">
+        <v>76</v>
+      </c>
+      <c r="D323">
+        <v>1</v>
+      </c>
+      <c r="E323" t="s">
+        <v>9</v>
+      </c>
+      <c r="F323" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>81</v>
+      </c>
+      <c r="B324">
+        <v>1</v>
+      </c>
+      <c r="C324" t="s">
+        <v>76</v>
+      </c>
+      <c r="D324">
+        <v>2</v>
+      </c>
+      <c r="E324" t="s">
+        <v>9</v>
+      </c>
+      <c r="F324" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>81</v>
+      </c>
+      <c r="B325">
+        <v>2</v>
+      </c>
+      <c r="C325" t="s">
+        <v>76</v>
+      </c>
+      <c r="D325">
+        <v>2</v>
+      </c>
+      <c r="E325" t="s">
+        <v>9</v>
+      </c>
+      <c r="F325" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>81</v>
+      </c>
+      <c r="B326">
+        <v>3</v>
+      </c>
+      <c r="C326" t="s">
+        <v>76</v>
+      </c>
+      <c r="D326">
+        <v>2</v>
+      </c>
+      <c r="E326" t="s">
+        <v>9</v>
+      </c>
+      <c r="F326" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>81</v>
+      </c>
+      <c r="B327">
+        <v>4</v>
+      </c>
+      <c r="C327" t="s">
+        <v>76</v>
+      </c>
+      <c r="D327">
+        <v>2</v>
+      </c>
+      <c r="E327" t="s">
+        <v>9</v>
+      </c>
+      <c r="F327" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>81</v>
+      </c>
+      <c r="B328">
+        <v>5</v>
+      </c>
+      <c r="C328" t="s">
+        <v>76</v>
+      </c>
+      <c r="D328">
+        <v>2</v>
+      </c>
+      <c r="E328" t="s">
+        <v>9</v>
+      </c>
+      <c r="F328" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>81</v>
+      </c>
+      <c r="B329">
+        <v>6</v>
+      </c>
+      <c r="C329" t="s">
+        <v>76</v>
+      </c>
+      <c r="D329">
+        <v>2</v>
+      </c>
+      <c r="E329" t="s">
+        <v>9</v>
+      </c>
+      <c r="F329" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>81</v>
+      </c>
+      <c r="B330">
+        <v>7</v>
+      </c>
+      <c r="C330" t="s">
+        <v>76</v>
+      </c>
+      <c r="D330">
+        <v>2</v>
+      </c>
+      <c r="E330" t="s">
+        <v>9</v>
+      </c>
+      <c r="F330" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
